--- a/BD Mapas Municipios/Biofísico/diccionario_variables_sld (1).xlsx
+++ b/BD Mapas Municipios/Biofísico/diccionario_variables_sld (1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-MUNI\BD Mapas Municipios\Biofísico\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6692829-0FCD-4A52-8066-43B1E91F4EBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EB10484-453F-4550-8A51-C5EB017CE0ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{4A9FDF97-7192-480A-96B6-C105C6CEA11F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="3" xr2:uid="{4A9FDF97-7192-480A-96B6-C105C6CEA11F}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -1948,8 +1948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB2922CA-05E7-48D3-867C-F594281EAB1C}">
   <dimension ref="A1:ET174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="G82" sqref="G82"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B98" sqref="B98:E98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5239,8 +5239,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62C4DA62-FB9F-4D07-A715-DCB9D4CD3208}">
   <dimension ref="A1:EW152"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A134" sqref="A134:E145"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
